--- a/biology/Zoologie/Dauphin_à_bosse_du_Pacifique/Dauphin_à_bosse_du_Pacifique.xlsx
+++ b/biology/Zoologie/Dauphin_à_bosse_du_Pacifique/Dauphin_à_bosse_du_Pacifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dauphin_%C3%A0_bosse_du_Pacifique</t>
+          <t>Dauphin_à_bosse_du_Pacifique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sousa chinensis
 Le dauphin à bosse du Pacifique ou sotalie de Chine (Sousa chinensis) est une espèce de mammifères de l'ordre des cétacés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dauphin_%C3%A0_bosse_du_Pacifique</t>
+          <t>Dauphin_à_bosse_du_Pacifique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce dauphin se trouve dans l'océan pacifique, en Asie du Sud-Est de l'Est du Sri Lanka  à la Chine et à l'Indonésie.
-Il vit le long des côtes, dans les eaux peu profondes des baies, près des mangroves et il remonte dans les estuaires[1].
+Il vit le long des côtes, dans les eaux peu profondes des baies, près des mangroves et il remonte dans les estuaires.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dauphin_%C3%A0_bosse_du_Pacifique</t>
+          <t>Dauphin_à_bosse_du_Pacifique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dauphin à bosse du Pacifique mesure de 1,80 m à 3 m de long et pèse jusqu'à 280 kg.
-Jeune, il est gris uniforme et ressemble à un jeune grand dauphin. Son dos est arqué. Il a de 60 à 76 dents à chaque mâchoire. Avec l'âge, il devient rose-blanc, moucheté de noir sur le dos[2].
+Jeune, il est gris uniforme et ressemble à un jeune grand dauphin. Son dos est arqué. Il a de 60 à 76 dents à chaque mâchoire. Avec l'âge, il devient rose-blanc, moucheté de noir sur le dos.
 			Dauphin à bosse du Pacifique ou Sotalie de Chine adulte
 			Jeune, encore gris, dans un marine land à Singapour
 			Tête de spécimen âgé devenant rose moucheté de noir
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dauphin_%C3%A0_bosse_du_Pacifique</t>
+          <t>Dauphin_à_bosse_du_Pacifique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les filets de pêche constituent un danger mortel ; de plus, il est victime d'empoisonnement aux métaux lourds et aux produits chimiques[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les filets de pêche constituent un danger mortel ; de plus, il est victime d'empoisonnement aux métaux lourds et aux produits chimiques.
 </t>
         </is>
       </c>
